--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T21:07:13-05:00</t>
+    <t>2022-06-30T09:28:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T09:28:59-05:00</t>
+    <t>2022-06-30T15:55:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T15:55:55-05:00</t>
+    <t>2022-07-26T16:10:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T10:15:20-05:00</t>
+    <t>2022-10-31T18:02:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:35:21-06:00</t>
+    <t>2023-01-12T09:36:27-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -54,13 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T09:36:27-06:00</t>
+    <t>2023-02-16T14:43:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -670,7 +670,9 @@
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-nmdp-race-cs.xlsx
+++ b/docs/CodeSystem-nmdp-race-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
